--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H2">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I2">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J2">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N2">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O2">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P2">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q2">
-        <v>0.76080594551</v>
+        <v>1.351653851093333</v>
       </c>
       <c r="R2">
-        <v>6.84725350959</v>
+        <v>12.16488465984</v>
       </c>
       <c r="S2">
-        <v>0.022227145208578</v>
+        <v>0.03342285262496054</v>
       </c>
       <c r="T2">
-        <v>0.022227145208578</v>
+        <v>0.03342285262496054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H3">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I3">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J3">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P3">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q3">
-        <v>0.4710171896733333</v>
+        <v>0.425270738816</v>
       </c>
       <c r="R3">
-        <v>4.23915470706</v>
+        <v>3.827436649344</v>
       </c>
       <c r="S3">
-        <v>0.01376089071384353</v>
+        <v>0.01051582934318424</v>
       </c>
       <c r="T3">
-        <v>0.01376089071384353</v>
+        <v>0.01051582934318424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H4">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I4">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J4">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N4">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P4">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q4">
-        <v>0.3171281258166667</v>
+        <v>0.24589789664</v>
       </c>
       <c r="R4">
-        <v>2.85415313235</v>
+        <v>2.21308106976</v>
       </c>
       <c r="S4">
-        <v>0.009264981358059846</v>
+        <v>0.006080409679992097</v>
       </c>
       <c r="T4">
-        <v>0.009264981358059846</v>
+        <v>0.006080409679992098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4370383333333334</v>
+        <v>0.394592</v>
       </c>
       <c r="H5">
-        <v>1.311115</v>
+        <v>1.183776</v>
       </c>
       <c r="I5">
-        <v>0.04569839301109439</v>
+        <v>0.05019988976834007</v>
       </c>
       <c r="J5">
-        <v>0.0456983930110944</v>
+        <v>0.05019988976834008</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N5">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P5">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q5">
-        <v>0.01524462546388889</v>
+        <v>0.007311658229333333</v>
       </c>
       <c r="R5">
-        <v>0.137201629175</v>
+        <v>0.065804924064</v>
       </c>
       <c r="S5">
-        <v>0.0004453757306130179</v>
+        <v>0.000180798120203198</v>
       </c>
       <c r="T5">
-        <v>0.0004453757306130179</v>
+        <v>0.000180798120203198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.979659</v>
       </c>
       <c r="I6">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J6">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N6">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O6">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P6">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q6">
-        <v>11.013402646566</v>
+        <v>21.67126988534</v>
       </c>
       <c r="R6">
-        <v>99.12062381909399</v>
+        <v>195.04142896806</v>
       </c>
       <c r="S6">
-        <v>0.3217594464271206</v>
+        <v>0.5358736328739608</v>
       </c>
       <c r="T6">
-        <v>0.3217594464271207</v>
+        <v>0.5358736328739608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.979659</v>
       </c>
       <c r="I7">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J7">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P7">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q7">
         <v>6.818429842643999</v>
@@ -883,10 +883,10 @@
         <v>61.36586858379599</v>
       </c>
       <c r="S7">
-        <v>0.1992022158887792</v>
+        <v>0.1686018765677212</v>
       </c>
       <c r="T7">
-        <v>0.1992022158887792</v>
+        <v>0.1686018765677213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.979659</v>
       </c>
       <c r="I8">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J8">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N8">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P8">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q8">
-        <v>4.59073665339</v>
+        <v>3.94251803301</v>
       </c>
       <c r="R8">
-        <v>41.31662988051</v>
+        <v>35.48266229708999</v>
       </c>
       <c r="S8">
-        <v>0.1341195751839715</v>
+        <v>0.09748812470142079</v>
       </c>
       <c r="T8">
-        <v>0.1341195751839715</v>
+        <v>0.09748812470142081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.979659</v>
       </c>
       <c r="I9">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501327</v>
       </c>
       <c r="J9">
-        <v>0.6615284823974669</v>
+        <v>0.8048623976501328</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N9">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P9">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q9">
-        <v>0.220680712895</v>
+        <v>0.117228918239</v>
       </c>
       <c r="R9">
-        <v>1.986126416055</v>
+        <v>1.055060264151</v>
       </c>
       <c r="S9">
-        <v>0.006447244897595512</v>
+        <v>0.0028987635070298</v>
       </c>
       <c r="T9">
-        <v>0.006447244897595512</v>
+        <v>0.0028987635070298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H10">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I10">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J10">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N10">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O10">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P10">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q10">
-        <v>3.433117426202</v>
+        <v>0.2705280759466667</v>
       </c>
       <c r="R10">
-        <v>30.898056835818</v>
+        <v>2.43475268352</v>
       </c>
       <c r="S10">
-        <v>0.1002994258925496</v>
+        <v>0.006689449377860889</v>
       </c>
       <c r="T10">
-        <v>0.1002994258925497</v>
+        <v>0.006689449377860889</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H11">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I11">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J11">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P11">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q11">
-        <v>2.125453056001333</v>
+        <v>0.085116226048</v>
       </c>
       <c r="R11">
-        <v>19.129077504012</v>
+        <v>0.766046034432</v>
       </c>
       <c r="S11">
-        <v>0.06209566840081501</v>
+        <v>0.002104700901709407</v>
       </c>
       <c r="T11">
-        <v>0.06209566840081503</v>
+        <v>0.002104700901709407</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H12">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I12">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J12">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N12">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P12">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q12">
-        <v>1.431032579996667</v>
+        <v>0.04921547392</v>
       </c>
       <c r="R12">
-        <v>12.87929321997</v>
+        <v>0.44293926528</v>
       </c>
       <c r="S12">
-        <v>0.04180799209247747</v>
+        <v>0.001216969515061268</v>
       </c>
       <c r="T12">
-        <v>0.04180799209247748</v>
+        <v>0.001216969515061268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.972124333333333</v>
+        <v>0.078976</v>
       </c>
       <c r="H13">
-        <v>5.916373</v>
+        <v>0.236928</v>
       </c>
       <c r="I13">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="J13">
-        <v>0.2062128330117706</v>
+        <v>0.01004730581041791</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N13">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P13">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q13">
-        <v>0.06879098362055555</v>
+        <v>0.001463398954666667</v>
       </c>
       <c r="R13">
-        <v>0.619118852585</v>
+        <v>0.013170590592</v>
       </c>
       <c r="S13">
-        <v>0.002009746625928414</v>
+        <v>3.618601578635087E-05</v>
       </c>
       <c r="T13">
-        <v>0.002009746625928414</v>
+        <v>3.618601578635087E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H14">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I14">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J14">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.740822</v>
+        <v>3.425446666666666</v>
       </c>
       <c r="N14">
-        <v>5.222466</v>
+        <v>10.27634</v>
       </c>
       <c r="O14">
-        <v>0.4863878955914668</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="P14">
-        <v>0.4863878955914669</v>
+        <v>0.6657953389778073</v>
       </c>
       <c r="Q14">
-        <v>1.441091910232</v>
+        <v>3.631982831617778</v>
       </c>
       <c r="R14">
-        <v>12.969827192088</v>
+        <v>32.68784548456</v>
       </c>
       <c r="S14">
-        <v>0.04210187806321854</v>
+        <v>0.08980940410102502</v>
       </c>
       <c r="T14">
-        <v>0.04210187806321855</v>
+        <v>0.08980940410102502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H15">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I15">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J15">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.233244</v>
       </c>
       <c r="O15">
-        <v>0.3011241710513264</v>
+        <v>0.2094791321596951</v>
       </c>
       <c r="P15">
-        <v>0.3011241710513265</v>
+        <v>0.2094791321596952</v>
       </c>
       <c r="Q15">
-        <v>0.8921842233546665</v>
+        <v>1.142730456410667</v>
       </c>
       <c r="R15">
-        <v>8.029658010192</v>
+        <v>10.284574107696</v>
       </c>
       <c r="S15">
-        <v>0.02606539604788867</v>
+        <v>0.02825672534708024</v>
       </c>
       <c r="T15">
-        <v>0.02606539604788868</v>
+        <v>0.02825672534708024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H16">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I16">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J16">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7256300000000001</v>
+        <v>0.62317</v>
       </c>
       <c r="N16">
-        <v>2.17689</v>
+        <v>1.86951</v>
       </c>
       <c r="O16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="P16">
-        <v>0.2027419510312003</v>
+        <v>0.1211239647746572</v>
       </c>
       <c r="Q16">
-        <v>0.6006929616133334</v>
+        <v>0.6607438274266668</v>
       </c>
       <c r="R16">
-        <v>5.40623665452</v>
+        <v>5.94669444684</v>
       </c>
       <c r="S16">
-        <v>0.01754940239669149</v>
+        <v>0.01633846087818302</v>
       </c>
       <c r="T16">
-        <v>0.01754940239669149</v>
+        <v>0.01633846087818302</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8278226666666666</v>
+        <v>1.060294666666667</v>
       </c>
       <c r="H17">
-        <v>2.483468</v>
+        <v>3.180884</v>
       </c>
       <c r="I17">
-        <v>0.08656029157966812</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="J17">
-        <v>0.08656029157966813</v>
+        <v>0.1348904067711093</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03488166666666666</v>
+        <v>0.01852966666666667</v>
       </c>
       <c r="N17">
-        <v>0.104645</v>
+        <v>0.055589</v>
       </c>
       <c r="O17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="P17">
-        <v>0.009745982326006345</v>
+        <v>0.003601564087840353</v>
       </c>
       <c r="Q17">
-        <v>0.02887583431777777</v>
+        <v>0.01964690674177778</v>
       </c>
       <c r="R17">
-        <v>0.25988250886</v>
+        <v>0.176822160676</v>
       </c>
       <c r="S17">
-        <v>0.0008436150718694013</v>
+        <v>0.0004858164448210043</v>
       </c>
       <c r="T17">
-        <v>0.0008436150718694015</v>
+        <v>0.0004858164448210043</v>
       </c>
     </row>
   </sheetData>
